--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,91 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.24607014176119368y</t>
-  </si>
-  <si>
-    <t>-1.1150994291874028</t>
+    <t>1.2243551978833835y</t>
+  </si>
+  <si>
+    <t>5.356092504467225</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.33468162538227564</t>
+  </si>
+  <si>
+    <t>0.7610371704678504</t>
+  </si>
+  <si>
+    <t>0.5409063754085729</t>
+  </si>
+  <si>
+    <t>-3 - x + 1.9035414930053012y</t>
+  </si>
+  <si>
+    <t>1.142384129045567</t>
+  </si>
+  <si>
+    <t>0.9092567913461869</t>
+  </si>
+  <si>
+    <t>0.0052664810917755125</t>
+  </si>
+  <si>
+    <t>0.8409632524951235</t>
+  </si>
+  <si>
+    <t>-12 + x + 1.1164224624624124y</t>
+  </si>
+  <si>
+    <t>-2.9311801143896368</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9216433883592792</t>
-  </si>
-  <si>
-    <t>0.7126848815194647</t>
-  </si>
-  <si>
-    <t>0.08070952673937302</t>
-  </si>
-  <si>
-    <t>-3 - x + 0.24607014176119368y</t>
-  </si>
-  <si>
-    <t>-6.5749388630080885</t>
-  </si>
-  <si>
-    <t>0.23190969850965648</t>
-  </si>
-  <si>
-    <t>0.9560560242650418</t>
-  </si>
-  <si>
-    <t>0.0640786873073884</t>
-  </si>
-  <si>
-    <t>-12 + x + 0.49214028352238737y</t>
-  </si>
-  <si>
-    <t>-5.079762849429703</t>
-  </si>
-  <si>
-    <t>0.9637500450473929</t>
-  </si>
-  <si>
-    <t>0.3659405141290256</t>
-  </si>
-  <si>
-    <t>0.14328598237623813</t>
-  </si>
-  <si>
-    <t>-12 + 4x - 0.24607014176119368y</t>
-  </si>
-  <si>
-    <t>5.645053739594562</t>
-  </si>
-  <si>
-    <t>0.9062712352416179</t>
-  </si>
-  <si>
-    <t>0.9731418765912537</t>
-  </si>
-  <si>
-    <t>0.2920278369596522</t>
+    <t>0.7906785535517057</t>
+  </si>
+  <si>
+    <t>0.1970156715059802</t>
+  </si>
+  <si>
+    <t>0.629307423434291</t>
+  </si>
+  <si>
+    <t>-12 + 4x + 1.924870762754641y</t>
+  </si>
+  <si>
+    <t>13.16015372672777</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.5618257705012442</t>
+  </si>
+  <si>
+    <t>0.1563052103601904</t>
+  </si>
+  <si>
+    <t>0.8503862843164217</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.690038292195491</t>
-  </si>
-  <si>
-    <t>4.531632408573915</t>
+    <t>4.184892416399492</t>
+  </si>
+  <si>
+    <t>4.374623078112156</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.0815710622455728</t>
+    <t>-5.1047505149695365</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.302451996228999</t>
-  </si>
-  <si>
-    <t>2.9994807195547892</t>
+    <t>0.1830299681450337</t>
+  </si>
+  <si>
+    <t>1.537375168659966</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -635,36 +641,36 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -690,10 +696,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +717,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -734,17 +740,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -762,12 +768,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.7539298582388063</v>
+        <v>0.4417887687687938</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,97 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.2243551978833835y</t>
-  </si>
-  <si>
-    <t>5.356092504467225</t>
+    <t>-22.36259364181055 + 2.777961943082056y</t>
+  </si>
+  <si>
+    <t>22.36259364181055</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.33468162538227564</t>
-  </si>
-  <si>
-    <t>0.7610371704678504</t>
-  </si>
-  <si>
-    <t>0.5409063754085729</t>
-  </si>
-  <si>
-    <t>-3 - x + 1.9035414930053012y</t>
-  </si>
-  <si>
-    <t>1.142384129045567</t>
-  </si>
-  <si>
-    <t>0.9092567913461869</t>
-  </si>
-  <si>
-    <t>0.0052664810917755125</t>
-  </si>
-  <si>
-    <t>0.8409632524951235</t>
-  </si>
-  <si>
-    <t>-12 + x + 1.1164224624624124y</t>
-  </si>
-  <si>
-    <t>-2.9311801143896368</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>8.100000000000001</t>
+  </si>
+  <si>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>0.17256554072491337 - x + 0.7363272620217498y</t>
+  </si>
+  <si>
+    <t>-3.1725655407249134</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>25.90361075419989 + x - 3.9756038203975015y</t>
+  </si>
+  <si>
+    <t>-37.90361075419989</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7906785535517057</t>
-  </si>
-  <si>
-    <t>0.1970156715059802</t>
-  </si>
-  <si>
-    <t>0.629307423434291</t>
-  </si>
-  <si>
-    <t>-12 + 4x + 1.924870762754641y</t>
-  </si>
-  <si>
-    <t>13.16015372672777</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>-42.731732216883216 + 4x + 2.242451207066238y</t>
+  </si>
+  <si>
+    <t>30.451732216883215</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5618257705012442</t>
-  </si>
-  <si>
-    <t>0.1563052103601904</t>
-  </si>
-  <si>
-    <t>0.8503862843164217</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>6.7</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.184892416399492</t>
-  </si>
-  <si>
-    <t>4.374623078112156</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>8.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-5.1047505149695365</t>
+    <t>-0.055641427428462675</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.1830299681450337</t>
-  </si>
-  <si>
-    <t>1.537375168659966</t>
+    <t>-41.4</t>
+  </si>
+  <si>
+    <t>-9.056845658615586</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -773,7 +773,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4417887687687938</v>
+        <v>2.9878019101987507</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,97 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-22.36259364181055 + 2.777961943082056y</t>
-  </si>
-  <si>
-    <t>22.36259364181055</t>
+    <t>-2.536821705426357 + 0.4263565891472869y</t>
+  </si>
+  <si>
+    <t>2.536821705426357</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>8.100000000000001</t>
-  </si>
-  <si>
-    <t>8.299999999999999</t>
-  </si>
-  <si>
-    <t>0.17256554072491337 - x + 0.7363272620217498y</t>
-  </si>
-  <si>
-    <t>-3.1725655407249134</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>25.90361075419989 + x - 3.9756038203975015y</t>
-  </si>
-  <si>
-    <t>-37.90361075419989</t>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>-12.868992248062016 - x + 3.062015503875969y</t>
+  </si>
+  <si>
+    <t>9.868992248062016</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>13.452000000000005 + x - 3.16y</t>
+  </si>
+  <si>
+    <t>-25.452000000000005</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>-42.731732216883216 + 4x + 2.242451207066238y</t>
-  </si>
-  <si>
-    <t>30.451732216883215</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>-34.392248062015504 + 4x + 2.0155038759689923y</t>
+  </si>
+  <si>
+    <t>21.392248062015504</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>6.7</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>5.2</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>8.05</t>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.055641427428462675</t>
+    <t>-2.646124031007752</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-41.4</t>
-  </si>
-  <si>
-    <t>-9.056845658615586</t>
+    <t>-15.799999999999997</t>
+  </si>
+  <si>
+    <t>-29.465209302325576</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -773,7 +773,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.9878019101987507</v>
+        <v>2.58</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,97 +66,97 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-2.536821705426357 + 0.4263565891472869y</t>
-  </si>
-  <si>
-    <t>2.536821705426357</t>
+    <t>-80.54999999999998 + 8.999999999999998y</t>
+  </si>
+  <si>
+    <t>80.54999999999998</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>-12.868992248062016 - x + 3.062015503875969y</t>
-  </si>
-  <si>
-    <t>9.868992248062016</t>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>6.6000000000000005</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>-166.0333333333333 - x + 19.333333333333332y</t>
+  </si>
+  <si>
+    <t>163.0333333333333</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>-7.0 + x</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
   </si>
   <si>
     <t>0.44</t>
   </si>
   <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>13.452000000000005 + x - 3.16y</t>
-  </si>
-  <si>
-    <t>-25.452000000000005</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>4.699999999999999</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>-78.77666666666666 + 4x + 5.666666666666666y</t>
+  </si>
+  <si>
+    <t>66.71666666666665</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>1.7000000000000002</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>-34.392248062015504 + 4x + 2.0155038759689923y</t>
-  </si>
-  <si>
-    <t>21.392248062015504</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>5.699999999999999</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>5.95</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.646124031007752</t>
+    <t>-17.426666666666662</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-15.799999999999997</t>
-  </si>
-  <si>
-    <t>-29.465209302325576</t>
+    <t>-16.1</t>
+  </si>
+  <si>
+    <t>-90.56666666666666</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -773,7 +773,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.58</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
   </sheetData>
